--- a/data/outputs/management_elsevier/110.xlsx
+++ b/data/outputs/management_elsevier/110.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS6"/>
+  <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +925,12 @@
           <t>2-s2.0-84941712441</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1095</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1142,12 @@
           <t>2-s2.0-84941661206</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2337</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1349,6 +1371,12 @@
           <t>2-s2.0-84925678254</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>5730</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1596,12 @@
           <t>2-s2.0-84928823986</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>3035</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1787,6 +1821,12 @@
           <t>2-s2.0-84941880140</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1712</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
